--- a/regions/3/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/3/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -534,16 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -564,7 +565,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -583,7 +584,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="20">
         <v>2006</v>
@@ -630,9 +631,14 @@
       <c r="P3" s="8">
         <v>2020</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -681,9 +687,14 @@
       <c r="P4" s="12">
         <v>49.7</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="12">
+        <v>53.3</v>
+      </c>
+      <c r="R4" s="12">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -732,9 +743,14 @@
       <c r="P5" s="12">
         <v>62.6</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R5" s="12">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -783,9 +799,14 @@
       <c r="P6" s="18">
         <v>708</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="18">
+        <v>794</v>
+      </c>
+      <c r="R6" s="18">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -834,9 +855,14 @@
       <c r="P7" s="18">
         <v>658</v>
       </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="18">
+        <v>706</v>
+      </c>
+      <c r="R7" s="18">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -885,9 +911,14 @@
       <c r="P8" s="12">
         <v>742.6</v>
       </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="12">
+        <v>864.3</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1418.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -936,9 +967,14 @@
       <c r="P9" s="12">
         <v>47</v>
       </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="12">
+        <v>42.6</v>
+      </c>
+      <c r="R9" s="12">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -987,9 +1023,14 @@
       <c r="P10" s="12">
         <v>6</v>
       </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="12">
+        <v>7.3</v>
+      </c>
+      <c r="R10" s="12">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
@@ -1038,9 +1079,14 @@
       <c r="P11" s="12">
         <v>15.7</v>
       </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="12">
+        <v>23.9</v>
+      </c>
+      <c r="R11" s="12">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1089,9 +1135,14 @@
       <c r="P12" s="12">
         <v>0.8</v>
       </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1140,9 +1191,14 @@
       <c r="P13" s="12">
         <v>46.7</v>
       </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="12">
+        <v>42.9</v>
+      </c>
+      <c r="R13" s="12">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1161,7 +1217,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1180,52 +1236,52 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="12.75">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="21"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="21"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="21"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="21"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="21"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="21"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="G32" s="23"/>
     </row>
   </sheetData>
